--- a/Documentação/Planilhas/Layouts/CRM_Marketing.xlsx
+++ b/Documentação/Planilhas/Layouts/CRM_Marketing.xlsx
@@ -4,25 +4,44 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="736"/>
   </bookViews>
   <sheets>
-    <sheet name="ods_parceiro_comercial" sheetId="297" r:id="rId1"/>
-    <sheet name="ods_departamento_comercial" sheetId="333" r:id="rId2"/>
-    <sheet name="ods_estrutura_canal_mkt" sheetId="334" r:id="rId3"/>
-    <sheet name="ods_estrutura_parceiro_mkt" sheetId="335" r:id="rId4"/>
-    <sheet name="ods_parceiromkt_canalmkt" sheetId="337" r:id="rId5"/>
-    <sheet name="ods_estrut_parc_parcmkt_canalmk" sheetId="338" r:id="rId6"/>
-    <sheet name="tmp_imp_parc_parcmkt_canalmk" sheetId="341" r:id="rId7"/>
-    <sheet name="ods_parceiros_parcmkt_canalmkt" sheetId="342" r:id="rId8"/>
-    <sheet name="Resumo" sheetId="93" r:id="rId9"/>
+    <sheet name="Resumo" sheetId="93" r:id="rId1"/>
+    <sheet name="dim_date_mkt" sheetId="348" r:id="rId2"/>
+    <sheet name="dim_departamento_mkt" sheetId="346" r:id="rId3"/>
+    <sheet name="dim_parceiro_mkt" sheetId="345" r:id="rId4"/>
+    <sheet name="dim_unidade_negocio_mkt" sheetId="347" r:id="rId5"/>
+    <sheet name="fact_distinct_acomp_orders" sheetId="355" r:id="rId6"/>
+    <sheet name="fact_distinct_acomp_sales" sheetId="356" r:id="rId7"/>
+    <sheet name="ods_departamento_comercial" sheetId="333" r:id="rId8"/>
+    <sheet name="ods_estrutura_canal_mkt" sheetId="334" r:id="rId9"/>
+    <sheet name="ods_estrutura_parceiro_mkt" sheetId="335" r:id="rId10"/>
+    <sheet name="ods_estrut_parc_parcmkt_canalmk" sheetId="338" r:id="rId11"/>
+    <sheet name="ods_metas_orders_sales_dep_parc" sheetId="343" r:id="rId12"/>
+    <sheet name="ods_mkt_acomp_orcamento" sheetId="354" r:id="rId13"/>
+    <sheet name="ods_mkt_acomp_orders" sheetId="352" r:id="rId14"/>
+    <sheet name="ods_mkt_acomp_orders_aux" sheetId="353" r:id="rId15"/>
+    <sheet name="ods_mkt_acomp_sales" sheetId="349" r:id="rId16"/>
+    <sheet name="ods_mkt_acomp_sales_aux" sheetId="350" r:id="rId17"/>
+    <sheet name="ods_mkt_acomp_vda_unineg_dp_par" sheetId="357" r:id="rId18"/>
+    <sheet name="ods_parceiro_comercial" sheetId="297" r:id="rId19"/>
+    <sheet name="ods_parceiromkt_canalmkt" sheetId="337" r:id="rId20"/>
+    <sheet name="ods_parceiros_parcmkt_canalmkt" sheetId="342" r:id="rId21"/>
+    <sheet name="tmp_import_metas_orders" sheetId="344" r:id="rId22"/>
+    <sheet name="tmp_imp_parc_parcmkt_canalmk" sheetId="341" r:id="rId23"/>
+    <sheet name="ods_acomp_com_mkt_invest_perc" sheetId="358" r:id="rId24"/>
+    <sheet name="ods_acomp_com_mkt_inv_per_afili" sheetId="361" r:id="rId25"/>
+    <sheet name="ods_acomp_com_mkt_invest_range" sheetId="359" r:id="rId26"/>
+    <sheet name="ods_acomp_com_mkt_invest_soma" sheetId="360" r:id="rId27"/>
+    <sheet name="ods_acomp_com_vda_inv_afiliado" sheetId="362" r:id="rId28"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="236">
   <si>
     <t>Campo</t>
   </si>
@@ -196,13 +215,547 @@
   </si>
   <si>
     <t>tmp_import_parceiros_parceiromkt_canalmkt</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_metas_orders_sales_depto_parceiro]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\gera valores do rateio.dtsx</t>
+  </si>
+  <si>
+    <t>nr_id_unidade_negocio</t>
+  </si>
+  <si>
+    <t>nr_dt_data_meta</t>
+  </si>
+  <si>
+    <t>nr_id_parceiro_mkt</t>
+  </si>
+  <si>
+    <t>nr_id_depto</t>
+  </si>
+  <si>
+    <t>vlr_pct_meta_orders</t>
+  </si>
+  <si>
+    <t>vlr_pct_meta_sales</t>
+  </si>
+  <si>
+    <t>vlr_tkt_medio</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através do seu código. Ex: 2, 8, etc</t>
+  </si>
+  <si>
+    <t>Identifica a data da meta no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica o Parceiro de Marketing através do seu código. Ex: 1900225, 2000173, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Departamento através do seu código. Ex: 38, 102, 236, etc</t>
+  </si>
+  <si>
+    <t>Valor das Metas de Pedidos</t>
+  </si>
+  <si>
+    <t>Valor das Metas de Vendas</t>
+  </si>
+  <si>
+    <t>Valor do Ticket Médio</t>
+  </si>
+  <si>
+    <t>ods_departamento_comercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ods_unidade_negocio </t>
+  </si>
+  <si>
+    <t>ods_estrutura_parceiro_parceiromkt_canalmkt</t>
+  </si>
+  <si>
+    <t>[dbo].[tmp_import_metas_orders_sales_unineg_depto_parceiro]</t>
+  </si>
+  <si>
+    <t>ds_unidade_negocio</t>
+  </si>
+  <si>
+    <t>ds_parceiro_mkt</t>
+  </si>
+  <si>
+    <t>ds_canal_mkt</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através da sua descrição. Ex: B2C Casas Bahia, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Parceiro de Marketing através da sua descrição. Ex: Priceinbox, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Canal de Marketing através da sua descrição. Ex: E-Mail Mkt Parceiro, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Departamento através da sua descrição. Ex: Automotivo, Bebês, etc</t>
+  </si>
+  <si>
+    <t>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\importa metas depto parceiro.dtsx</t>
+  </si>
+  <si>
+    <t>[dbo].[dim_parceiro_mkt]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\shared dimensions marketing.dtsx</t>
+  </si>
+  <si>
+    <t>Identifica o Parceiro de Marketing através do seu código. Ex: 1400152, 1400215, 1400218, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Parceiro de Marketing através da sua descrição. Ex: Lomadee, Meupontofrio, Zanox, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Canal de Marketing através da sua descrição. Ex: Afiliados, B2b, etc</t>
+  </si>
+  <si>
+    <t>[dbo].[dim_departamento_mkt]</t>
+  </si>
+  <si>
+    <t>[dbo].[dim_unidade_negocio_mkt]</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através do seu código. Ex: 1, 4, 5, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através da sua descrição. Ex: B2C PF, HP, B2C Extra, etc</t>
+  </si>
+  <si>
+    <t>ods_unidade_negocio</t>
+  </si>
+  <si>
+    <t>[dbo].[dim_date_mkt]</t>
+  </si>
+  <si>
+    <t>nr_date</t>
+  </si>
+  <si>
+    <t>nr_year</t>
+  </si>
+  <si>
+    <t>nr_quarter</t>
+  </si>
+  <si>
+    <t>ds_quarter</t>
+  </si>
+  <si>
+    <t>nr_month</t>
+  </si>
+  <si>
+    <t>ds_month</t>
+  </si>
+  <si>
+    <t>nr_dia_semana</t>
+  </si>
+  <si>
+    <t>ds_dia_semana</t>
+  </si>
+  <si>
+    <t>nr_day</t>
+  </si>
+  <si>
+    <t>dt_date</t>
+  </si>
+  <si>
+    <t>ods_date</t>
+  </si>
+  <si>
+    <t>Identifica a data no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica o ano no formato AAAA</t>
+  </si>
+  <si>
+    <t>Identifica o trimestre através do seu número. Ex: 1, 2, etc</t>
+  </si>
+  <si>
+    <t>Identifica o trimestre através da sua descrição. Ex: Quarter 1,  Quarter 2, etc</t>
+  </si>
+  <si>
+    <t>Identifica o mês através do seu número. Ex: 1, 2, etc</t>
+  </si>
+  <si>
+    <t>Identifica o mês através da sua descrição. Ex: January,  February, etc</t>
+  </si>
+  <si>
+    <t>Identifica o dia da semana através do seu número. Ex: 1, 2, etc</t>
+  </si>
+  <si>
+    <t>Identifica o dia da semana através da sua descrição. Ex: Domingo, Segunda-Feira, etc</t>
+  </si>
+  <si>
+    <t>Identifica o dia do mês através do seu número. Ex: 1, 2, etc</t>
+  </si>
+  <si>
+    <t>Identifica a data no formato DD-MM-AAAA</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_mkt_acomp_sales]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\ods_acomp_venda_unineg_depto_parceiro.dtsx</t>
+  </si>
+  <si>
+    <t>nr_depto</t>
+  </si>
+  <si>
+    <t>nr_parceiro_mkt</t>
+  </si>
+  <si>
+    <t>nr_dt_faturamento</t>
+  </si>
+  <si>
+    <t>nr_vl_product</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através do seu código. Ex: 1, 8, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Data do Faturamento no formato AAAMMDD</t>
+  </si>
+  <si>
+    <t>Valor do Produto</t>
+  </si>
+  <si>
+    <t>ods_fatdev</t>
+  </si>
+  <si>
+    <t>ods_product</t>
+  </si>
+  <si>
+    <t>ods_parceiro</t>
+  </si>
+  <si>
+    <t>ods_midia</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_mkt_acomp_sales_aux]</t>
+  </si>
+  <si>
+    <t>nr_id_entrega</t>
+  </si>
+  <si>
+    <t>Identifica a entrega do produto através do seu código. Ex: 3698239701, 3576331901, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Parceiro de Marketing através do seu código. Ex: 1800182, 1400215, etc</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_mkt_acomp_orders]</t>
+  </si>
+  <si>
+    <t>nr_dt_orders</t>
+  </si>
+  <si>
+    <t>nr_vl_product_disc</t>
+  </si>
+  <si>
+    <t>Identifica a Data do Pedido no formato AAAMMDD</t>
+  </si>
+  <si>
+    <t>Valor do Produto com desconto</t>
+  </si>
+  <si>
+    <t>ods_ordersweb</t>
+  </si>
+  <si>
+    <t>ods_ordersweb_transicao</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_mkt_acomp_orders_aux]</t>
+  </si>
+  <si>
+    <t>dt_orders</t>
+  </si>
+  <si>
+    <t>nr_orders</t>
+  </si>
+  <si>
+    <t>Identifica o Pedido através do seu código. Ex: 57177664, 56808533, etc</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_mkt_acomp_orcamento]</t>
+  </si>
+  <si>
+    <t>nr_id_departamento</t>
+  </si>
+  <si>
+    <t>nr_dt_data_orcamento</t>
+  </si>
+  <si>
+    <t>vlr_orcamento_orders</t>
+  </si>
+  <si>
+    <t>vlr_orcamento_sales</t>
+  </si>
+  <si>
+    <t>Identifica a Data do Orçamento no formato AAAMMDD</t>
+  </si>
+  <si>
+    <t>Valor do Orçamento de Pedidos</t>
+  </si>
+  <si>
+    <t>Valor do Orçamento de Vendas</t>
+  </si>
+  <si>
+    <t>ods_cockpit</t>
+  </si>
+  <si>
+    <t>[dbo].[fact_distinct_acomp_orders]</t>
+  </si>
+  <si>
+    <t>ods_mkt_acomp_orders_aux</t>
+  </si>
+  <si>
+    <t>[dbo].[fact_distinct_acomp_sales]</t>
+  </si>
+  <si>
+    <t>Identifica a Entrega através do seu código. Ex: 1621651901, 1636117402, etc</t>
+  </si>
+  <si>
+    <t>ods_mkt_acomp_sales_aux</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_mkt_acomp_venda_unineg_depto_parceiro]</t>
+  </si>
+  <si>
+    <t>nr_data_operacao</t>
+  </si>
+  <si>
+    <t>nr_vlr_orcado_orders_depto_parceiro</t>
+  </si>
+  <si>
+    <t>nr_vlr_orcado_sales_depto_parceiro</t>
+  </si>
+  <si>
+    <t>nr_qtd_orcado_orders_pedidos_depto_parceiro</t>
+  </si>
+  <si>
+    <t>nr_qtd_orcado_sales_pedidos_depto_parceiro</t>
+  </si>
+  <si>
+    <t>nr_vlr_product_orders</t>
+  </si>
+  <si>
+    <t>nr_qtd_pedido_orders</t>
+  </si>
+  <si>
+    <t>nr_qtd_pedido_orders_ano_ant</t>
+  </si>
+  <si>
+    <t>nr_qtd_pedido_orders_ano_ant_dia_semana</t>
+  </si>
+  <si>
+    <t>nr_vlr_product_orders_ano_ant</t>
+  </si>
+  <si>
+    <t>nr_vlr_product_orders_ano_ant_dia_semana</t>
+  </si>
+  <si>
+    <t>nr_vlr_product_sales</t>
+  </si>
+  <si>
+    <t>nr_qtd_pedido_sales</t>
+  </si>
+  <si>
+    <t>nr_qtd_pedido_sales_ano_ant</t>
+  </si>
+  <si>
+    <t>nr_qtd_pedido_sales_ano_ant_dia_semana</t>
+  </si>
+  <si>
+    <t>nr_vlr_product_sales_ano_ant</t>
+  </si>
+  <si>
+    <t>nr_vlr_product_sales_ano_ant_dia_semana</t>
+  </si>
+  <si>
+    <t>Identifica a Data da Operação no formato AAAMMDD</t>
+  </si>
+  <si>
+    <t>Valor Orçado das Vendas por Parceiro</t>
+  </si>
+  <si>
+    <t>Quantidade Orçada dos pedidos por Parceiro</t>
+  </si>
+  <si>
+    <t>Quantidade Orçada das Vendas por Parceiro</t>
+  </si>
+  <si>
+    <t>Valor das Vendas por Parceiro</t>
+  </si>
+  <si>
+    <t>Não está sendo considerado na carga dos dados</t>
+  </si>
+  <si>
+    <t>Valor Orçado dos Pedidos por Parceiro</t>
+  </si>
+  <si>
+    <t>ods_metas_orders_sales_depto_parceiro</t>
+  </si>
+  <si>
+    <t>ods_mkt_acomp_orcamento</t>
+  </si>
+  <si>
+    <t>ods_mkt_acomp_venda_unineg_depto_parceiro</t>
+  </si>
+  <si>
+    <t>ods_mkt_acomp_orders</t>
+  </si>
+  <si>
+    <t>ods_mkt_acomp_orders_ano_ant orders</t>
+  </si>
+  <si>
+    <t>ods_mkt_acomp_orders_ano_ant_dia_semana</t>
+  </si>
+  <si>
+    <t>Valor dos Pedidos para o ano anterior da semana</t>
+  </si>
+  <si>
+    <t>Valor dos Pedidos por Parceiro</t>
+  </si>
+  <si>
+    <t>Valor das Vendas do ano anterior</t>
+  </si>
+  <si>
+    <t>Valor dos Pedidos do ano anterior</t>
+  </si>
+  <si>
+    <t>Valor das vendas para o ano anterior da semana</t>
+  </si>
+  <si>
+    <t>ods_mkt_acomp_sales</t>
+  </si>
+  <si>
+    <t>ods_mkt_acomp_sales_ano_ant</t>
+  </si>
+  <si>
+    <t>ods_mkt_acomp_sales_ano_ant_dia_semana</t>
+  </si>
+  <si>
+    <t>[mkt].[ods_acomp_com_mkt_invest_perc]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\ods_importa_listas_investimento.dtsx</t>
+  </si>
+  <si>
+    <t>nr_mes_ano</t>
+  </si>
+  <si>
+    <t>nr_fonte</t>
+  </si>
+  <si>
+    <t>vl_perc_investimento</t>
+  </si>
+  <si>
+    <t>Identifica o Ano e Mês de referência no formato AAAAMM</t>
+  </si>
+  <si>
+    <t>Identifica a Fonte através do seu código. Ex: 1, etc</t>
+  </si>
+  <si>
+    <t>Percentual de Investimento do periodo</t>
+  </si>
+  <si>
+    <t>MIS_ODS</t>
+  </si>
+  <si>
+    <t>vw_dim_parceiro_canal_mkt</t>
+  </si>
+  <si>
+    <t>dim_unidade_negocio</t>
+  </si>
+  <si>
+    <t>dim.dim_produto</t>
+  </si>
+  <si>
+    <t>[mkt].[ods_acomp_com_mkt_invest_range]</t>
+  </si>
+  <si>
+    <t>vl_de</t>
+  </si>
+  <si>
+    <t>vl_ate</t>
+  </si>
+  <si>
+    <t>vl_approved</t>
+  </si>
+  <si>
+    <t>Valor Inicial da Faixa</t>
+  </si>
+  <si>
+    <t>Valor Final da Faixa</t>
+  </si>
+  <si>
+    <t>Valor Aprovado</t>
+  </si>
+  <si>
+    <t>vw_fact_approved</t>
+  </si>
+  <si>
+    <t>mkt.fact_acomp_com_mkt_invest_range</t>
+  </si>
+  <si>
+    <t>MIS_DATA_WAREHOUSE</t>
+  </si>
+  <si>
+    <t>[mkt].[ods_acomp_com_mkt_invest_soma]</t>
+  </si>
+  <si>
+    <t>Identifica a data do investimento no formato AAAA-MM-DD HH:MM:SSSS</t>
+  </si>
+  <si>
+    <t>Valor do Investimento</t>
+  </si>
+  <si>
+    <t>[mkt].[ods_acomp_com_mkt_invest_perc_afiliados]</t>
+  </si>
+  <si>
+    <t>vl_perc_outros</t>
+  </si>
+  <si>
+    <t>Percentual Outros do período</t>
+  </si>
+  <si>
+    <t>[mkt].[ods_acomp_venda_invest_afiliados]</t>
+  </si>
+  <si>
+    <t>ds_status</t>
+  </si>
+  <si>
+    <t>vl_investido</t>
+  </si>
+  <si>
+    <t>Identifica o Status através do seu código. Ex: A, L, etc</t>
+  </si>
+  <si>
+    <t>Valor Investido no período</t>
+  </si>
+  <si>
+    <t>mkt.fact_acomp_com_mkt_invest_perc_afiliados</t>
+  </si>
+  <si>
+    <t>ods_comissao_parceiro_apurados</t>
+  </si>
+  <si>
+    <t>MIS_RELATORIO</t>
+  </si>
+  <si>
+    <t>dim_parceiro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +791,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -509,7 +1070,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -569,6 +1130,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -635,7 +1199,817 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -906,6 +2280,51 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1236,131 +2655,510 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="B2:E33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="127.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1"/>
-    <row r="17" ht="30" customHeight="1"/>
-    <row r="18" ht="30" customHeight="1"/>
-    <row r="19" ht="30" customHeight="1"/>
-    <row r="20" ht="30" customHeight="1"/>
-    <row r="21" ht="30" customHeight="1"/>
-    <row r="22" ht="30" customHeight="1"/>
-    <row r="23" ht="30" customHeight="1"/>
-    <row r="24" ht="30" customHeight="1"/>
-    <row r="25" ht="30" customHeight="1"/>
-    <row r="26" ht="30" customHeight="1"/>
-    <row r="27" ht="30" customHeight="1"/>
-    <row r="28" ht="30" customHeight="1"/>
-    <row r="29" ht="30" customHeight="1"/>
-    <row r="30" ht="30" customHeight="1"/>
-    <row r="31" ht="30" customHeight="1"/>
+    <row r="2" spans="2:5">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15">
+      <c r="B3" s="20" t="str">
+        <f>dim_date_mkt!B9</f>
+        <v>[dbo].[dim_date_mkt]</v>
+      </c>
+      <c r="C3" s="18" t="str">
+        <f>dim_date_mkt!B8</f>
+        <v>DM_MARKETING</v>
+      </c>
+      <c r="D3" s="19" t="str">
+        <f>dim_date_mkt!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\shared dimensions marketing.dtsx</v>
+      </c>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="2:5" ht="15">
+      <c r="B4" s="20" t="str">
+        <f>dim_departamento_mkt!B9</f>
+        <v>[dbo].[dim_departamento_mkt]</v>
+      </c>
+      <c r="C4" s="18" t="str">
+        <f>dim_departamento_mkt!B8</f>
+        <v>DM_MARKETING</v>
+      </c>
+      <c r="D4" s="19" t="str">
+        <f>dim_departamento_mkt!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\shared dimensions marketing.dtsx</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="2:5" ht="15">
+      <c r="B5" s="20" t="str">
+        <f>dim_parceiro_mkt!B9</f>
+        <v>[dbo].[dim_parceiro_mkt]</v>
+      </c>
+      <c r="C5" s="18" t="str">
+        <f>dim_parceiro_mkt!B8</f>
+        <v>DM_MARKETING</v>
+      </c>
+      <c r="D5" s="19" t="str">
+        <f>dim_parceiro_mkt!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\shared dimensions marketing.dtsx</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="2:5" ht="15">
+      <c r="B6" s="20" t="str">
+        <f>dim_unidade_negocio_mkt!B9</f>
+        <v>[dbo].[dim_unidade_negocio_mkt]</v>
+      </c>
+      <c r="C6" s="18" t="str">
+        <f>dim_unidade_negocio_mkt!B8</f>
+        <v>DM_MARKETING</v>
+      </c>
+      <c r="D6" s="19" t="str">
+        <f>dim_unidade_negocio_mkt!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\shared dimensions marketing.dtsx</v>
+      </c>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="2:5" ht="15">
+      <c r="B7" s="20" t="str">
+        <f>fact_distinct_acomp_orders!B9</f>
+        <v>[dbo].[fact_distinct_acomp_orders]</v>
+      </c>
+      <c r="C7" s="18" t="str">
+        <f>fact_distinct_acomp_orders!B8</f>
+        <v>DM_MARKETING</v>
+      </c>
+      <c r="D7" s="19" t="str">
+        <f>fact_distinct_acomp_orders!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\ods_acomp_venda_unineg_depto_parceiro.dtsx</v>
+      </c>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="2:5" ht="15">
+      <c r="B8" s="20" t="str">
+        <f>fact_distinct_acomp_sales!B9</f>
+        <v>[dbo].[fact_distinct_acomp_sales]</v>
+      </c>
+      <c r="C8" s="18" t="str">
+        <f>fact_distinct_acomp_sales!B8</f>
+        <v>DM_MARKETING</v>
+      </c>
+      <c r="D8" s="19" t="str">
+        <f>fact_distinct_acomp_sales!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\ods_acomp_venda_unineg_depto_parceiro.dtsx</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="2:5" ht="15">
+      <c r="B9" s="20" t="str">
+        <f>ods_departamento_comercial!B9</f>
+        <v>[dbo].[ods_departamento_comercial]</v>
+      </c>
+      <c r="C9" s="18" t="str">
+        <f>ods_departamento_comercial!B8</f>
+        <v>DM_MARKETING</v>
+      </c>
+      <c r="D9" s="19" t="str">
+        <f>ods_departamento_comercial!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\importa parceiros e deptos comercial.dtsx</v>
+      </c>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="2:5" ht="15">
+      <c r="B10" s="20" t="str">
+        <f>ods_estrutura_canal_mkt!B9</f>
+        <v>[dbo].[ods_estrutura_canal_mkt]</v>
+      </c>
+      <c r="C10" s="18" t="str">
+        <f>ods_estrutura_canal_mkt!B8</f>
+        <v>DM_MARKETING</v>
+      </c>
+      <c r="D10" s="19" t="str">
+        <f>ods_estrutura_canal_mkt!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\gera hierarquia de parceiros.dtsx</v>
+      </c>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="2:5" ht="15">
+      <c r="B11" s="20" t="str">
+        <f>ods_estrutura_parceiro_mkt!B9</f>
+        <v>[dbo].[ods_estrutura_parceiro_mkt]</v>
+      </c>
+      <c r="C11" s="18" t="str">
+        <f>ods_estrutura_parceiro_mkt!B8</f>
+        <v>DM_MARKETING</v>
+      </c>
+      <c r="D11" s="19" t="str">
+        <f>ods_estrutura_parceiro_mkt!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\gera hierarquia de parceiros.dtsx</v>
+      </c>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="2:5" ht="15">
+      <c r="B12" s="20" t="str">
+        <f>ods_estrut_parc_parcmkt_canalmk!B9</f>
+        <v>[dbo].[ods_estrutura_parceiro_parceiromkt_canalmkt]</v>
+      </c>
+      <c r="C12" s="18" t="str">
+        <f>ods_estrut_parc_parcmkt_canalmk!B8</f>
+        <v>DM_MARKETING</v>
+      </c>
+      <c r="D12" s="19" t="str">
+        <f>ods_estrut_parc_parcmkt_canalmk!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\gera hierarquia de parceiros.dtsx</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="2:5" ht="15">
+      <c r="B13" s="20" t="str">
+        <f>ods_metas_orders_sales_dep_parc!B9</f>
+        <v>[dbo].[ods_metas_orders_sales_depto_parceiro]</v>
+      </c>
+      <c r="C13" s="18" t="str">
+        <f>ods_metas_orders_sales_dep_parc!B8</f>
+        <v>DM_MARKETING</v>
+      </c>
+      <c r="D13" s="19" t="str">
+        <f>ods_metas_orders_sales_dep_parc!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\gera valores do rateio.dtsx</v>
+      </c>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="2:5" ht="15">
+      <c r="B14" s="20" t="str">
+        <f>ods_mkt_acomp_orcamento!B9</f>
+        <v>[dbo].[ods_mkt_acomp_orcamento]</v>
+      </c>
+      <c r="C14" s="18" t="str">
+        <f>ods_mkt_acomp_orcamento!B8</f>
+        <v>DM_MARKETING</v>
+      </c>
+      <c r="D14" s="19" t="str">
+        <f>ods_mkt_acomp_orcamento!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\ods_acomp_venda_unineg_depto_parceiro.dtsx</v>
+      </c>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="2:5" ht="15">
+      <c r="B15" s="20" t="str">
+        <f>ods_mkt_acomp_orders!B9</f>
+        <v>[dbo].[ods_mkt_acomp_orders]</v>
+      </c>
+      <c r="C15" s="18" t="str">
+        <f>ods_mkt_acomp_orders!B8</f>
+        <v>DM_MARKETING</v>
+      </c>
+      <c r="D15" s="19" t="str">
+        <f>ods_mkt_acomp_orders!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\ods_acomp_venda_unineg_depto_parceiro.dtsx</v>
+      </c>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="2:5" ht="15">
+      <c r="B16" s="20" t="str">
+        <f>ods_mkt_acomp_orders_aux!B9</f>
+        <v>[dbo].[ods_mkt_acomp_orders_aux]</v>
+      </c>
+      <c r="C16" s="18" t="str">
+        <f>ods_mkt_acomp_orders_aux!B8</f>
+        <v>DM_MARKETING</v>
+      </c>
+      <c r="D16" s="19" t="str">
+        <f>ods_mkt_acomp_orders_aux!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\ods_acomp_venda_unineg_depto_parceiro.dtsx</v>
+      </c>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="2:5" ht="15">
+      <c r="B17" s="20" t="str">
+        <f>ods_mkt_acomp_sales!B9</f>
+        <v>[dbo].[ods_mkt_acomp_sales]</v>
+      </c>
+      <c r="C17" s="18" t="str">
+        <f>ods_mkt_acomp_sales!B8</f>
+        <v>DM_MARKETING</v>
+      </c>
+      <c r="D17" s="19" t="str">
+        <f>ods_mkt_acomp_sales!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\ods_acomp_venda_unineg_depto_parceiro.dtsx</v>
+      </c>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="2:5" ht="15">
+      <c r="B18" s="20" t="str">
+        <f>ods_mkt_acomp_sales_aux!B9</f>
+        <v>[dbo].[ods_mkt_acomp_sales_aux]</v>
+      </c>
+      <c r="C18" s="18" t="str">
+        <f>ods_mkt_acomp_sales_aux!B8</f>
+        <v>DM_MARKETING</v>
+      </c>
+      <c r="D18" s="19" t="str">
+        <f>ods_mkt_acomp_sales_aux!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\ods_acomp_venda_unineg_depto_parceiro.dtsx</v>
+      </c>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="2:5" ht="15">
+      <c r="B19" s="20" t="str">
+        <f>ods_mkt_acomp_vda_unineg_dp_par!B9</f>
+        <v>[dbo].[ods_mkt_acomp_venda_unineg_depto_parceiro]</v>
+      </c>
+      <c r="C19" s="18" t="str">
+        <f>ods_mkt_acomp_vda_unineg_dp_par!B8</f>
+        <v>DM_MARKETING</v>
+      </c>
+      <c r="D19" s="19" t="str">
+        <f>ods_mkt_acomp_vda_unineg_dp_par!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\ods_acomp_venda_unineg_depto_parceiro.dtsx</v>
+      </c>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="2:5" ht="15">
+      <c r="B20" s="20" t="str">
+        <f>ods_parceiro_comercial!B9</f>
+        <v>[dbo].[ods_parceiro_comercial]</v>
+      </c>
+      <c r="C20" s="18" t="str">
+        <f>ods_parceiro_comercial!B8</f>
+        <v>DM_MARKETING</v>
+      </c>
+      <c r="D20" s="19" t="str">
+        <f>ods_parceiro_comercial!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\importa parceiros e deptos comercial.dtsx</v>
+      </c>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="2:5" ht="15">
+      <c r="B21" s="20" t="str">
+        <f>ods_parceiromkt_canalmkt!B9</f>
+        <v>[dbo].[ods_parceiromkt_canalmkt]</v>
+      </c>
+      <c r="C21" s="18" t="str">
+        <f>ods_parceiromkt_canalmkt!B8</f>
+        <v>DM_MARKETING</v>
+      </c>
+      <c r="D21" s="19" t="str">
+        <f>ods_parceiromkt_canalmkt!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\gera hierarquia de parceiros.dtsx</v>
+      </c>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="2:5" ht="15">
+      <c r="B22" s="20" t="str">
+        <f>ods_parceiros_parcmkt_canalmkt!B9</f>
+        <v>[dbo].[ods_parceiros_parceiromkt_canalmkt]</v>
+      </c>
+      <c r="C22" s="18" t="str">
+        <f>ods_parceiros_parcmkt_canalmkt!B8</f>
+        <v>DM_MARKETING</v>
+      </c>
+      <c r="D22" s="19" t="str">
+        <f>ods_parceiros_parcmkt_canalmkt!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\manipula_novos_parceiros.dtsx</v>
+      </c>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="2:5" ht="15">
+      <c r="B23" s="20" t="str">
+        <f>tmp_import_metas_orders!B9</f>
+        <v>[dbo].[tmp_import_metas_orders_sales_unineg_depto_parceiro]</v>
+      </c>
+      <c r="C23" s="18" t="str">
+        <f>tmp_import_metas_orders!B8</f>
+        <v>DM_MARKETING</v>
+      </c>
+      <c r="D23" s="19" t="str">
+        <f>tmp_import_metas_orders!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\importa metas depto parceiro.dtsx</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="2:5" ht="15">
+      <c r="B24" s="20" t="str">
+        <f>tmp_imp_parc_parcmkt_canalmk!B9</f>
+        <v>[dbo].[tmp_import_parceiros_parceiromkt_canalmkt]</v>
+      </c>
+      <c r="C24" s="18" t="str">
+        <f>tmp_imp_parc_parcmkt_canalmk!B8</f>
+        <v>DM_MARKETING</v>
+      </c>
+      <c r="D24" s="19" t="str">
+        <f>tmp_imp_parc_parcmkt_canalmk!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\manipula_novos_parceiros.dtsx</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="2:5" ht="15">
+      <c r="B25" s="20" t="str">
+        <f>ods_acomp_com_mkt_invest_perc!B9</f>
+        <v>[mkt].[ods_acomp_com_mkt_invest_perc]</v>
+      </c>
+      <c r="C25" s="18" t="str">
+        <f>ods_acomp_com_mkt_invest_perc!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D25" s="19" t="str">
+        <f>ods_acomp_com_mkt_invest_perc!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\ods_importa_listas_investimento.dtsx</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="2:5" ht="15">
+      <c r="B26" s="20" t="str">
+        <f>ods_acomp_com_mkt_inv_per_afili!B9</f>
+        <v>[mkt].[ods_acomp_com_mkt_invest_perc_afiliados]</v>
+      </c>
+      <c r="C26" s="18" t="str">
+        <f>ods_acomp_com_mkt_inv_per_afili!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D26" s="19" t="str">
+        <f>ods_acomp_com_mkt_inv_per_afili!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\ods_importa_listas_investimento.dtsx</v>
+      </c>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="2:5" ht="15">
+      <c r="B27" s="20" t="str">
+        <f>ods_acomp_com_mkt_invest_range!B9</f>
+        <v>[mkt].[ods_acomp_com_mkt_invest_range]</v>
+      </c>
+      <c r="C27" s="18" t="str">
+        <f>ods_acomp_com_mkt_invest_range!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D27" s="19" t="str">
+        <f>ods_acomp_com_mkt_invest_range!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\ods_importa_listas_investimento.dtsx</v>
+      </c>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="2:5" ht="15">
+      <c r="B28" s="20" t="str">
+        <f>ods_acomp_com_mkt_invest_soma!B9</f>
+        <v>[mkt].[ods_acomp_com_mkt_invest_soma]</v>
+      </c>
+      <c r="C28" s="18" t="str">
+        <f>ods_acomp_com_mkt_invest_soma!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D28" s="19" t="str">
+        <f>ods_acomp_com_mkt_invest_soma!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\ods_importa_listas_investimento.dtsx</v>
+      </c>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="2:5" ht="15">
+      <c r="B29" s="20" t="str">
+        <f>ods_acomp_com_vda_inv_afiliado!B9</f>
+        <v>[mkt].[ods_acomp_venda_invest_afiliados]</v>
+      </c>
+      <c r="C29" s="18" t="str">
+        <f>ods_acomp_com_vda_inv_afiliado!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D29" s="19" t="str">
+        <f>ods_acomp_com_vda_inv_afiliado!B10</f>
+        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\ods_importa_listas_investimento.dtsx</v>
+      </c>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="2:5" ht="15">
+      <c r="B30" s="20"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="2:5" ht="15">
+      <c r="B31" s="20"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="12"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="14"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <sortState ref="B3:E29">
+    <sortCondition ref="B3"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B20" location="ods_parceiro_comercial!A1" display="ods_parceiro_comercial!A1"/>
+    <hyperlink ref="B9" location="ods_departamento_comercial!A1" display="ods_departamento_comercial!A1"/>
+    <hyperlink ref="B10" location="ods_estrutura_canal_mkt!A1" display="ods_estrutura_canal_mkt!A1"/>
+    <hyperlink ref="B11" location="ods_estrutura_parceiro_mkt!A1" display="ods_estrutura_parceiro_mkt!A1"/>
+    <hyperlink ref="B21" location="ods_parceiromkt_canalmkt!A1" display="ods_parceiromkt_canalmkt!A1"/>
+    <hyperlink ref="B12" location="ods_estrut_parc_parcmkt_canalmk!A1" display="ods_estrut_parc_parcmkt_canalmk!A1"/>
+    <hyperlink ref="B24" location="tmp_imp_parc_parcmkt_canalmk!A1" display="tmp_imp_parc_parcmkt_canalmk!A1"/>
+    <hyperlink ref="B22" location="ods_parceiros_parcmkt_canalmkt!A1" display="ods_parceiros_parcmkt_canalmkt!A1"/>
+    <hyperlink ref="B13" location="ods_metas_orders_sales_dep_parc!A1" display="ods_metas_orders_sales_dep_parc!A1"/>
+    <hyperlink ref="B23" location="tmp_import_metas_orders!A1" display="tmp_import_metas_orders!A1"/>
+    <hyperlink ref="B5" location="dim_parceiro_mkt!A1" display="dim_parceiro_mkt!A1"/>
+    <hyperlink ref="B4" location="dim_departamento_mkt!A1" display="dim_departamento_mkt!A1"/>
+    <hyperlink ref="B6" location="dim_unidade_negocio_mkt!A1" display="dim_unidade_negocio_mkt!A1"/>
+    <hyperlink ref="B3" location="dim_date_mkt!A1" display="dim_date_mkt!A1"/>
+    <hyperlink ref="B17" location="ods_mkt_acomp_sales!A1" display="ods_mkt_acomp_sales!A1"/>
+    <hyperlink ref="B18" location="ods_mkt_acomp_sales_aux!A1" display="ods_mkt_acomp_sales_aux!A1"/>
+    <hyperlink ref="B15" location="ods_mkt_acomp_orders!A1" display="ods_mkt_acomp_orders!A1"/>
+    <hyperlink ref="B16" location="ods_mkt_acomp_orders_aux!A1" display="ods_mkt_acomp_orders_aux!A1"/>
+    <hyperlink ref="B14" location="ods_mkt_acomp_orcamento!A1" display="ods_mkt_acomp_orcamento!A1"/>
+    <hyperlink ref="B7" location="fact_distinct_acomp_orders!A1" display="fact_distinct_acomp_orders!A1"/>
+    <hyperlink ref="B8" location="fact_distinct_acomp_sales!A1" display="fact_distinct_acomp_sales!A1"/>
+    <hyperlink ref="B19" location="ods_mkt_acomp_vda_unineg_dp_par!A1" display="ods_mkt_acomp_vda_unineg_dp_par!A1"/>
+    <hyperlink ref="B27" location="ods_acomp_com_mkt_invest_range!A1" display="ods_acomp_com_mkt_invest_range!A1"/>
+    <hyperlink ref="B28" location="ods_acomp_com_mkt_invest_soma!A1" display="ods_acomp_com_mkt_invest_soma!A1"/>
+    <hyperlink ref="B25" location="ods_acomp_com_mkt_invest_perc!A1" display="ods_acomp_com_mkt_invest_perc!A1"/>
+    <hyperlink ref="B26" location="ods_acomp_com_mkt_inv_per_afili!A1" display="ods_acomp_com_mkt_inv_per_afili!A1"/>
+    <hyperlink ref="B29" location="ods_acomp_com_vda_inv_afiliado!A1" display="ods_acomp_com_vda_inv_afiliado!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1408,7 +3206,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1416,7 +3214,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -1436,51 +3234,28 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>29</v>
+      <c r="A15" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" ht="30" customHeight="1"/>
-    <row r="18" ht="30" customHeight="1"/>
-    <row r="19" ht="30" customHeight="1"/>
-    <row r="20" ht="30" customHeight="1"/>
-    <row r="21" ht="30" customHeight="1"/>
-    <row r="22" ht="30" customHeight="1"/>
-    <row r="23" ht="30" customHeight="1"/>
-    <row r="24" ht="30" customHeight="1"/>
-    <row r="25" ht="30" customHeight="1"/>
-    <row r="26" ht="30" customHeight="1"/>
-    <row r="27" ht="30" customHeight="1"/>
-    <row r="28" ht="30" customHeight="1"/>
-    <row r="29" ht="30" customHeight="1"/>
-    <row r="30" ht="30" customHeight="1"/>
-    <row r="31" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1488,12 +3263,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1541,7 +3316,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1569,10 +3344,10 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
@@ -1582,89 +3357,66 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C17" s="2"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C18" s="2"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="B19" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="4"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C21" s="2"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C23" s="2"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C24" s="2"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C25" s="2"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C26" s="2"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C27" s="2"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C28" s="2"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C29" s="2"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C30" s="2"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1673,199 +3425,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C17" s="2"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C18" s="2"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C19" s="2"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C21" s="2"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C23" s="2"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C24" s="2"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C25" s="2"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C26" s="2"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C27" s="2"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C28" s="2"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C29" s="2"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C30" s="2"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1913,7 +3478,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1921,7 +3486,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -1941,102 +3506,90 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="A15" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>72</v>
+      </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>73</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="4"/>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C21" s="2"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C23" s="2"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C24" s="2"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C25" s="2"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C26" s="2"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C27" s="2"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C28" s="2"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C29" s="2"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C30" s="2"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2045,422 +3598,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A16" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A18" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C21" s="2"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C23" s="2"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C24" s="2"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C25" s="2"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C26" s="2"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C27" s="2"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C28" s="2"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C29" s="2"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C30" s="2"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E30"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C17" s="2"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C18" s="2"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C19" s="2"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C21" s="2"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C23" s="2"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C24" s="2"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C25" s="2"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C26" s="2"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C27" s="2"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C28" s="2"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C29" s="2"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C30" s="2"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2508,7 +3651,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2516,7 +3659,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2536,6 +3679,1575 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1"/>
+    <row r="20" spans="1:5" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A25" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A26" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A28" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A29" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A30" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A31" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A32" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A23" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -2569,75 +5281,1916 @@
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="4"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>72</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="4"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>73</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="4"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C21" s="2"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C23" s="2"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C24" s="2"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C25" s="2"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C26" s="2"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C27" s="2"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C28" s="2"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C29" s="2"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="3:5" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C30" s="2"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1"/>
+    <row r="20" spans="1:5" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1"/>
+    <row r="20" spans="1:5" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2649,238 +7202,109 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B2:E21"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="123.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15">
-      <c r="B3" s="20" t="str">
-        <f>ods_parceiro_comercial!B9</f>
-        <v>[dbo].[ods_parceiro_comercial]</v>
-      </c>
-      <c r="C3" s="18" t="str">
-        <f>ods_parceiro_comercial!B8</f>
-        <v>DM_MARKETING</v>
-      </c>
-      <c r="D3" s="19" t="str">
-        <f>ods_parceiro_comercial!B10</f>
-        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\importa parceiros e deptos comercial.dtsx</v>
-      </c>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="2:5" ht="15">
-      <c r="B4" s="20" t="str">
-        <f>ods_departamento_comercial!B9</f>
-        <v>[dbo].[ods_departamento_comercial]</v>
-      </c>
-      <c r="C4" s="18" t="str">
-        <f>ods_departamento_comercial!B8</f>
-        <v>DM_MARKETING</v>
-      </c>
-      <c r="D4" s="19" t="str">
-        <f>ods_departamento_comercial!B10</f>
-        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\importa parceiros e deptos comercial.dtsx</v>
-      </c>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="2:5" ht="15">
-      <c r="B5" s="20" t="str">
-        <f>ods_estrutura_canal_mkt!B9</f>
-        <v>[dbo].[ods_estrutura_canal_mkt]</v>
-      </c>
-      <c r="C5" s="18" t="str">
-        <f>ods_estrutura_canal_mkt!B8</f>
-        <v>DM_MARKETING</v>
-      </c>
-      <c r="D5" s="19" t="str">
-        <f>ods_estrutura_canal_mkt!B10</f>
-        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\gera hierarquia de parceiros.dtsx</v>
-      </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="2:5" ht="15">
-      <c r="B6" s="20" t="str">
-        <f>ods_estrutura_parceiro_mkt!B9</f>
-        <v>[dbo].[ods_estrutura_parceiro_mkt]</v>
-      </c>
-      <c r="C6" s="18" t="str">
-        <f>ods_estrutura_parceiro_mkt!B8</f>
-        <v>DM_MARKETING</v>
-      </c>
-      <c r="D6" s="19" t="str">
-        <f>ods_estrutura_parceiro_mkt!B10</f>
-        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\gera hierarquia de parceiros.dtsx</v>
-      </c>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="2:5" ht="15">
-      <c r="B7" s="20" t="str">
-        <f>ods_parceiromkt_canalmkt!B9</f>
-        <v>[dbo].[ods_parceiromkt_canalmkt]</v>
-      </c>
-      <c r="C7" s="18" t="str">
-        <f>ods_parceiromkt_canalmkt!B8</f>
-        <v>DM_MARKETING</v>
-      </c>
-      <c r="D7" s="19" t="str">
-        <f>ods_parceiromkt_canalmkt!B10</f>
-        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\gera hierarquia de parceiros.dtsx</v>
-      </c>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="2:5" ht="15">
-      <c r="B8" s="20" t="str">
-        <f>ods_estrut_parc_parcmkt_canalmk!B9</f>
-        <v>[dbo].[ods_estrutura_parceiro_parceiromkt_canalmkt]</v>
-      </c>
-      <c r="C8" s="18" t="str">
-        <f>ods_estrut_parc_parcmkt_canalmk!B8</f>
-        <v>DM_MARKETING</v>
-      </c>
-      <c r="D8" s="19" t="str">
-        <f>ods_estrut_parc_parcmkt_canalmk!B10</f>
-        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\gera hierarquia de parceiros.dtsx</v>
-      </c>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="2:5" ht="15">
-      <c r="B9" s="20" t="str">
-        <f>tmp_imp_parc_parcmkt_canalmk!B9</f>
-        <v>[dbo].[tmp_import_parceiros_parceiromkt_canalmkt]</v>
-      </c>
-      <c r="C9" s="18" t="str">
-        <f>tmp_imp_parc_parcmkt_canalmk!B8</f>
-        <v>DM_MARKETING</v>
-      </c>
-      <c r="D9" s="19" t="str">
-        <f>tmp_imp_parc_parcmkt_canalmk!B10</f>
-        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\manipula_novos_parceiros.dtsx</v>
-      </c>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="2:5" ht="15">
-      <c r="B10" s="20" t="str">
-        <f>ods_parceiros_parcmkt_canalmkt!B9</f>
-        <v>[dbo].[ods_parceiros_parceiromkt_canalmkt]</v>
-      </c>
-      <c r="C10" s="18" t="str">
-        <f>ods_parceiros_parcmkt_canalmkt!B8</f>
-        <v>DM_MARKETING</v>
-      </c>
-      <c r="D10" s="19" t="str">
-        <f>ods_parceiros_parcmkt_canalmkt!B10</f>
-        <v>N:\Migracao\AcompanhamentoVendasMktUninegDeptoParceiro_Prod\AcompVdasMktUninegDeptoParceiro\manipula_novos_parceiros.dtsx</v>
-      </c>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="2:5" ht="15">
-      <c r="B11" s="20"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="2:5" ht="15">
-      <c r="B12" s="20"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="2:5" ht="15">
-      <c r="B13" s="20"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="15">
-      <c r="B14" s="20"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="2:5" ht="15">
-      <c r="B15" s="20"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="2:5" ht="15">
-      <c r="B16" s="20"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="2:5" ht="15">
-      <c r="B17" s="20"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="2:5" ht="15">
-      <c r="B18" s="20"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="2:5" ht="15">
-      <c r="B19" s="20"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="12"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="14"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="B3:E38">
-    <sortCondition ref="B3"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="B3" location="ods_parceiro_comercial!A1" display="ods_parceiro_comercial!A1"/>
-    <hyperlink ref="B4" location="ods_departamento_comercial!A1" display="ods_departamento_comercial!A1"/>
-    <hyperlink ref="B5" location="ods_estrutura_canal_mkt!A1" display="ods_estrutura_canal_mkt!A1"/>
-    <hyperlink ref="B6" location="ods_estrutura_parceiro_mkt!A1" display="ods_estrutura_parceiro_mkt!A1"/>
-    <hyperlink ref="B7" location="ods_parceiromkt_canalmkt!A1" display="ods_parceiromkt_canalmkt!A1"/>
-    <hyperlink ref="B8" location="ods_estrut_parc_parcmkt_canalmk!A1" display="ods_estrut_parc_parcmkt_canalmk!A1"/>
-    <hyperlink ref="B9" location="tmp_imp_parc_parcmkt_canalmk!A1" display="tmp_imp_parc_parcmkt_canalmk!A1"/>
-    <hyperlink ref="B10" location="ods_parceiros_parcmkt_canalmkt!A1" display="ods_parceiros_parcmkt_canalmkt!A1"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>